--- a/excel/OilSandsExcel_v21.xlsx
+++ b/excel/OilSandsExcel_v21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755" tabRatio="664" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755" tabRatio="664" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="384">
   <si>
     <t>Wind Speed Information</t>
   </si>
@@ -1159,9 +1159,6 @@
     <t>CO2 from producing oil sands (tons per barrel of oil)</t>
   </si>
   <si>
-    <t>Sweden's carbon tax ($140/MT)</t>
-  </si>
-  <si>
     <t>Millions to be spent on solar cells acquisition next year</t>
   </si>
   <si>
@@ -1175,6 +1172,30 @@
   </si>
   <si>
     <t>Total CO2 per year from oil sands (megatonnes/year)</t>
+  </si>
+  <si>
+    <t>Sweden's carbon tax ($140M/MT)</t>
+  </si>
+  <si>
+    <t>Alberta's 2016 Carbon tax ($20M/MT)</t>
+  </si>
+  <si>
+    <t>Alberta's 2017 Carbon Tax ($30M/MT)</t>
+  </si>
+  <si>
+    <t>Proposed Investment</t>
+  </si>
+  <si>
+    <t>% of 2016 tax</t>
+  </si>
+  <si>
+    <t>% of 2017 tax</t>
+  </si>
+  <si>
+    <t>% of 2016 Tax</t>
+  </si>
+  <si>
+    <t>Investment $/bbl</t>
   </si>
 </sst>
 </file>
@@ -2107,11 +2128,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="385">
+  <cellXfs count="396">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2792,6 +2814,7 @@
     <xf numFmtId="0" fontId="32" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2897,10 +2920,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="38" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="38" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="38" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="38" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="38" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3331,11 +3365,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-798237488"/>
-        <c:axId val="-798243472"/>
+        <c:axId val="272337504"/>
+        <c:axId val="272339680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-798237488"/>
+        <c:axId val="272337504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3372,7 +3406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-798243472"/>
+        <c:crossAx val="272339680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3380,7 +3414,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-798243472"/>
+        <c:axId val="272339680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3431,7 +3465,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-798237488"/>
+        <c:crossAx val="272337504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3476,6 +3510,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3906,11 +3941,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-798242928"/>
-        <c:axId val="-798246192"/>
+        <c:axId val="272340224"/>
+        <c:axId val="272342944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-798242928"/>
+        <c:axId val="272340224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3956,7 +3991,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-798246192"/>
+        <c:crossAx val="272342944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3964,7 +3999,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-798246192"/>
+        <c:axId val="272342944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4024,7 +4059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-798242928"/>
+        <c:crossAx val="272340224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6524,11 +6559,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-798236400"/>
-        <c:axId val="-798242384"/>
+        <c:axId val="272343488"/>
+        <c:axId val="272345120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-798236400"/>
+        <c:axId val="272343488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6588,12 +6623,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-798242384"/>
+        <c:crossAx val="272345120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-798242384"/>
+        <c:axId val="272345120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6673,7 +6708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-798236400"/>
+        <c:crossAx val="272343488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9179,11 +9214,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-798235856"/>
-        <c:axId val="-798244560"/>
+        <c:axId val="272346208"/>
+        <c:axId val="272346752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-798235856"/>
+        <c:axId val="272346208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9235,12 +9270,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-798244560"/>
+        <c:crossAx val="272346752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-798244560"/>
+        <c:axId val="272346752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9316,7 +9351,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-798235856"/>
+        <c:crossAx val="272346208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9768,11 +9803,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-798236944"/>
-        <c:axId val="-798235312"/>
+        <c:axId val="224590096"/>
+        <c:axId val="224598256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-798236944"/>
+        <c:axId val="224590096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9810,7 +9845,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-798235312"/>
+        <c:crossAx val="224598256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9818,7 +9853,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-798235312"/>
+        <c:axId val="224598256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9870,7 +9905,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-798236944"/>
+        <c:crossAx val="224590096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12355,11 +12390,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-798233680"/>
-        <c:axId val="-798231504"/>
+        <c:axId val="360506096"/>
+        <c:axId val="360507184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-798233680"/>
+        <c:axId val="360506096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12417,12 +12452,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-798231504"/>
+        <c:crossAx val="360507184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-798231504"/>
+        <c:axId val="360507184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12501,7 +12536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-798233680"/>
+        <c:crossAx val="360506096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15007,11 +15042,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-705451712"/>
-        <c:axId val="-705463680"/>
+        <c:axId val="360505008"/>
+        <c:axId val="360510448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-705451712"/>
+        <c:axId val="360505008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15069,12 +15104,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-705463680"/>
+        <c:crossAx val="360510448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-705463680"/>
+        <c:axId val="360510448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15140,7 +15175,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-705451712"/>
+        <c:crossAx val="360505008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15164,1385 +15199,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>Carbon Footprint as a Function</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> of Carbon Tax</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-CA"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13398390958104431"/>
-          <c:y val="0.12543918230035636"/>
-          <c:w val="0.79222802660099545"/>
-          <c:h val="0.66115252048001349"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Carbon Footprint (MT)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>CarbonFootprint!$F$4:$F$63</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>347.92166666666662</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>695.84333333333325</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1043.7650000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1391.6866666666665</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1739.6083333333331</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2087.5299999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2435.4516666666668</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2783.373333333333</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3131.2950000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3479.2166666666662</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3827.1383333333333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4175.0599999999995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4522.9816666666666</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4870.9033333333336</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5218.8249999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5566.7466666666669</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5914.6683333333331</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6262.59</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6610.5116666666663</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6958.4333333333334</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7306.3549999999996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7654.2766666666666</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8002.1983333333328</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8350.119999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8698.0416666666661</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9045.9633333333331</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9393.8850000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9741.8066666666673</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10089.728333333334</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10437.65</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>10785.571666666667</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11133.493333333334</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>11481.415000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>11829.336666666666</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12177.258333333333</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12525.18</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12873.101666666667</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>13221.023333333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>13568.945</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>13916.866666666667</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>14264.788333333334</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>14612.71</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>14960.631666666666</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>15308.553333333333</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>15656.474999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>16004.396666666666</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>16352.318333333333</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>16700.239999999998</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>17048.161666666667</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>17396.083333333332</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>17744.004999999997</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>18091.926666666666</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>18439.848333333332</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>18787.77</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>19135.691666666666</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>19483.613333333335</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>19831.535000000003</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>20179.456666666672</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>20527.378333333341</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>20875.300000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Carbon Tax ($K)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>CarbonFootprint!$G$4:$G$63</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>48.709033333333331</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>97.418066666666661</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>146.12710000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>194.83613333333332</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>243.54516666666666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>292.25419999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>340.96323333333339</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>389.67226666666664</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>438.38130000000007</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>487.09033333333332</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>535.79936666666674</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>584.50839999999994</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>633.21743333333336</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>681.92646666666678</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>730.63550000000009</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>779.3445333333334</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>828.05356666666671</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>876.76260000000013</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>925.47163333333333</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>974.18066666666675</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1022.8897000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1071.5987333333335</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1120.3077666666668</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1169.0167999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1217.7258333333334</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1266.4348666666667</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1315.1439000000003</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1363.8529333333336</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1412.5619666666669</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1461.2710000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1509.9800333333335</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1558.6890666666668</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1607.3981000000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1656.1071333333334</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1704.8161666666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1753.5252000000003</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1802.2342333333336</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1850.9432666666667</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1899.6523000000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1948.3613333333335</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1997.070366666667</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2045.7794000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2094.4884333333334</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2143.197466666667</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2191.9065000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2240.6155333333336</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2289.3245666666667</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2338.0335999999998</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2386.7426333333337</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2435.4516666666668</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2484.1606999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2532.8697333333334</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2581.5787666666665</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2630.2878000000005</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2678.9968333333336</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2727.7058666666671</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2776.4149000000007</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2825.1239333333342</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2873.8329666666682</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2922.5420000000013</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-705454432"/>
-        <c:axId val="-705452800"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-705454432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA" sz="1100"/>
-                  <a:t>Year</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-705452800"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-705452800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA" sz="1100"/>
-                  <a:t>Amount of Carbon Burned (MT)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="3.4320029682772125E-2"/>
-              <c:y val="0.20300310361809148"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-705454432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16824,41 +15480,6 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>61910</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="13468350" y="1190625"/>
@@ -17201,20 +15822,20 @@
   <sheetData>
     <row r="1" spans="1:13" ht="24.75" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="346" t="s">
+      <c r="B1" s="347" t="s">
         <v>361</v>
       </c>
-      <c r="C1" s="347"/>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="348"/>
+      <c r="C1" s="348"/>
+      <c r="D1" s="348"/>
+      <c r="E1" s="348"/>
+      <c r="F1" s="348"/>
+      <c r="G1" s="348"/>
+      <c r="H1" s="348"/>
+      <c r="I1" s="348"/>
+      <c r="J1" s="348"/>
+      <c r="K1" s="348"/>
+      <c r="L1" s="348"/>
+      <c r="M1" s="349"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="183"/>
@@ -17824,7 +16445,7 @@
     <row r="34" spans="1:13">
       <c r="A34" s="183"/>
       <c r="B34" s="345" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C34" s="108">
         <f>C33+C32</f>
@@ -18082,15 +16703,15 @@
         <v>200</v>
       </c>
       <c r="D47" s="188"/>
-      <c r="E47" s="353"/>
-      <c r="F47" s="350"/>
-      <c r="G47" s="350"/>
-      <c r="H47" s="350"/>
-      <c r="I47" s="350"/>
-      <c r="J47" s="350"/>
-      <c r="K47" s="350"/>
-      <c r="L47" s="350"/>
-      <c r="M47" s="350"/>
+      <c r="E47" s="354"/>
+      <c r="F47" s="351"/>
+      <c r="G47" s="351"/>
+      <c r="H47" s="351"/>
+      <c r="I47" s="351"/>
+      <c r="J47" s="351"/>
+      <c r="K47" s="351"/>
+      <c r="L47" s="351"/>
+      <c r="M47" s="351"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="183"/>
@@ -18397,9 +17018,9 @@
         <v>141.78240740740739</v>
       </c>
       <c r="D63" s="197"/>
-      <c r="E63" s="349"/>
-      <c r="F63" s="350"/>
-      <c r="G63" s="350"/>
+      <c r="E63" s="350"/>
+      <c r="F63" s="351"/>
+      <c r="G63" s="351"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -18417,9 +17038,9 @@
         <v>1242.0138888888887</v>
       </c>
       <c r="D64" s="197"/>
-      <c r="E64" s="350"/>
-      <c r="F64" s="350"/>
-      <c r="G64" s="350"/>
+      <c r="E64" s="351"/>
+      <c r="F64" s="351"/>
+      <c r="G64" s="351"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -18677,14 +17298,14 @@
         <v>22</v>
       </c>
       <c r="D78" s="201"/>
-      <c r="E78" s="351" t="s">
+      <c r="E78" s="352" t="s">
         <v>347</v>
       </c>
-      <c r="F78" s="350"/>
-      <c r="G78" s="350"/>
-      <c r="H78" s="350"/>
-      <c r="I78" s="350"/>
-      <c r="J78" s="350"/>
+      <c r="F78" s="351"/>
+      <c r="G78" s="351"/>
+      <c r="H78" s="351"/>
+      <c r="I78" s="351"/>
+      <c r="J78" s="351"/>
       <c r="K78" s="183"/>
       <c r="L78" s="183"/>
       <c r="M78" s="183"/>
@@ -18699,12 +17320,12 @@
         <v>2.5</v>
       </c>
       <c r="D79" s="183"/>
-      <c r="E79" s="350"/>
-      <c r="F79" s="350"/>
-      <c r="G79" s="350"/>
-      <c r="H79" s="350"/>
-      <c r="I79" s="350"/>
-      <c r="J79" s="350"/>
+      <c r="E79" s="351"/>
+      <c r="F79" s="351"/>
+      <c r="G79" s="351"/>
+      <c r="H79" s="351"/>
+      <c r="I79" s="351"/>
+      <c r="J79" s="351"/>
       <c r="K79" s="183"/>
       <c r="L79" s="183"/>
       <c r="M79" s="183"/>
@@ -18787,7 +17408,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="183"/>
-      <c r="B84" s="352" t="s">
+      <c r="B84" s="353" t="s">
         <v>355</v>
       </c>
       <c r="C84" s="161">
@@ -18809,7 +17430,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="183"/>
-      <c r="B85" s="350"/>
+      <c r="B85" s="351"/>
       <c r="C85" s="161">
         <v>1389</v>
       </c>
@@ -18904,23 +17525,23 @@
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="354" t="s">
+      <c r="B1" s="355" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
-      <c r="G1" s="354"/>
-      <c r="H1" s="354"/>
-      <c r="I1" s="354"/>
-      <c r="J1" s="354"/>
-      <c r="K1" s="354"/>
-      <c r="L1" s="354"/>
-      <c r="M1" s="354"/>
-      <c r="N1" s="354"/>
-      <c r="O1" s="354"/>
-      <c r="P1" s="354"/>
+      <c r="C1" s="355"/>
+      <c r="D1" s="355"/>
+      <c r="E1" s="355"/>
+      <c r="F1" s="355"/>
+      <c r="G1" s="355"/>
+      <c r="H1" s="355"/>
+      <c r="I1" s="355"/>
+      <c r="J1" s="355"/>
+      <c r="K1" s="355"/>
+      <c r="L1" s="355"/>
+      <c r="M1" s="355"/>
+      <c r="N1" s="355"/>
+      <c r="O1" s="355"/>
+      <c r="P1" s="355"/>
     </row>
     <row r="2" spans="1:16" s="184" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="183"/>
@@ -18941,24 +17562,24 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="183"/>
-      <c r="B3" s="368" t="s">
+      <c r="B3" s="369" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="369"/>
-      <c r="D3" s="369"/>
-      <c r="E3" s="369"/>
-      <c r="F3" s="369"/>
-      <c r="G3" s="369"/>
-      <c r="H3" s="370"/>
-      <c r="J3" s="368" t="s">
+      <c r="C3" s="370"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="370"/>
+      <c r="F3" s="370"/>
+      <c r="G3" s="370"/>
+      <c r="H3" s="371"/>
+      <c r="J3" s="369" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="369"/>
-      <c r="L3" s="369"/>
-      <c r="M3" s="369"/>
-      <c r="N3" s="369"/>
-      <c r="O3" s="369"/>
-      <c r="P3" s="370"/>
+      <c r="K3" s="370"/>
+      <c r="L3" s="370"/>
+      <c r="M3" s="370"/>
+      <c r="N3" s="370"/>
+      <c r="O3" s="370"/>
+      <c r="P3" s="371"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="183"/>
@@ -21899,10 +20520,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:L109"/>
+  <dimension ref="C2:S109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -21911,10 +20532,18 @@
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="334" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="346" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="13.5" thickBot="1"/>
-    <row r="3" spans="3:7" ht="58.5" customHeight="1" thickBot="1">
+    <row r="2" spans="3:19" ht="13.5" thickBot="1"/>
+    <row r="3" spans="3:19" ht="58.5" customHeight="1" thickBot="1">
       <c r="C3" s="324" t="s">
         <v>45</v>
       </c>
@@ -21928,10 +20557,25 @@
         <v>271</v>
       </c>
       <c r="G3" s="336" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" ht="15.75" thickBot="1">
+        <v>376</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="J3" s="338" t="s">
+        <v>379</v>
+      </c>
+      <c r="K3" s="338" t="s">
+        <v>380</v>
+      </c>
+      <c r="L3" s="338" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" ht="15">
       <c r="C4" s="326">
         <v>1</v>
       </c>
@@ -21946,11 +20590,31 @@
         <v>347.92166666666662</v>
       </c>
       <c r="G4" s="337">
-        <f>F4*0.14</f>
-        <v>48.709033333333331</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" ht="15.75" thickBot="1">
+        <f>F4*140</f>
+        <v>48709.033333333326</v>
+      </c>
+      <c r="H4" s="388">
+        <f>F4*20</f>
+        <v>6958.4333333333325</v>
+      </c>
+      <c r="I4" s="388">
+        <f>F4*30</f>
+        <v>10437.649999999998</v>
+      </c>
+      <c r="J4" s="335">
+        <f>F4*7.5</f>
+        <v>2609.4124999999995</v>
+      </c>
+      <c r="K4" s="391">
+        <f>J4/H4</f>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="L4">
+        <f>J4/I4</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" ht="15">
       <c r="C5" s="327">
         <v>2</v>
       </c>
@@ -21964,12 +20628,32 @@
         <f t="shared" ref="F5:F63" si="0">SUM(E5+D5)</f>
         <v>695.84333333333325</v>
       </c>
-      <c r="G5" s="337">
-        <f t="shared" ref="G5:G63" si="1">F5*0.14</f>
-        <v>97.418066666666661</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" ht="15.75" thickBot="1">
+      <c r="G5" s="386">
+        <f t="shared" ref="G5:G63" si="1">F5*140</f>
+        <v>97418.066666666651</v>
+      </c>
+      <c r="H5" s="389">
+        <f t="shared" ref="H5:H63" si="2">F5*20</f>
+        <v>13916.866666666665</v>
+      </c>
+      <c r="I5" s="389">
+        <f t="shared" ref="I5:I63" si="3">F5*30</f>
+        <v>20875.299999999996</v>
+      </c>
+      <c r="J5" s="335">
+        <f t="shared" ref="J5:J63" si="4">F5*7.5</f>
+        <v>5218.8249999999989</v>
+      </c>
+      <c r="K5" s="391">
+        <f t="shared" ref="K5:K63" si="5">J5/H5</f>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="L5" s="346">
+        <f>J5/I5</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" ht="15">
       <c r="C6" s="327">
         <v>3</v>
       </c>
@@ -21983,12 +20667,32 @@
         <f t="shared" si="0"/>
         <v>1043.7650000000001</v>
       </c>
-      <c r="G6" s="337">
+      <c r="G6" s="386">
         <f t="shared" si="1"/>
-        <v>146.12710000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" ht="15.75" thickBot="1">
+        <v>146127.1</v>
+      </c>
+      <c r="H6" s="389">
+        <f t="shared" si="2"/>
+        <v>20875.300000000003</v>
+      </c>
+      <c r="I6" s="389">
+        <f t="shared" si="3"/>
+        <v>31312.950000000004</v>
+      </c>
+      <c r="J6" s="335">
+        <f t="shared" si="4"/>
+        <v>7828.2375000000011</v>
+      </c>
+      <c r="K6" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L6" s="346">
+        <f t="shared" ref="L5:L63" si="6">J6/I6</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" ht="15">
       <c r="C7" s="327">
         <v>4</v>
       </c>
@@ -22002,12 +20706,32 @@
         <f t="shared" si="0"/>
         <v>1391.6866666666665</v>
       </c>
-      <c r="G7" s="337">
+      <c r="G7" s="386">
         <f t="shared" si="1"/>
-        <v>194.83613333333332</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="15.75" thickBot="1">
+        <v>194836.1333333333</v>
+      </c>
+      <c r="H7" s="389">
+        <f t="shared" si="2"/>
+        <v>27833.73333333333</v>
+      </c>
+      <c r="I7" s="389">
+        <f t="shared" si="3"/>
+        <v>41750.599999999991</v>
+      </c>
+      <c r="J7" s="335">
+        <f t="shared" si="4"/>
+        <v>10437.649999999998</v>
+      </c>
+      <c r="K7" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="L7" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" ht="15">
       <c r="C8" s="327">
         <v>5</v>
       </c>
@@ -22021,12 +20745,32 @@
         <f t="shared" si="0"/>
         <v>1739.6083333333331</v>
       </c>
-      <c r="G8" s="337">
+      <c r="G8" s="386">
         <f t="shared" si="1"/>
-        <v>243.54516666666666</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" ht="15.75" thickBot="1">
+        <v>243545.16666666663</v>
+      </c>
+      <c r="H8" s="389">
+        <f t="shared" si="2"/>
+        <v>34792.166666666664</v>
+      </c>
+      <c r="I8" s="389">
+        <f t="shared" si="3"/>
+        <v>52188.249999999993</v>
+      </c>
+      <c r="J8" s="335">
+        <f t="shared" si="4"/>
+        <v>13047.062499999998</v>
+      </c>
+      <c r="K8" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L8" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" ht="15">
       <c r="C9" s="327">
         <v>6</v>
       </c>
@@ -22040,12 +20784,32 @@
         <f t="shared" si="0"/>
         <v>2087.5299999999997</v>
       </c>
-      <c r="G9" s="337">
+      <c r="G9" s="386">
         <f t="shared" si="1"/>
-        <v>292.25419999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" ht="15.75" thickBot="1">
+        <v>292254.19999999995</v>
+      </c>
+      <c r="H9" s="389">
+        <f t="shared" si="2"/>
+        <v>41750.599999999991</v>
+      </c>
+      <c r="I9" s="389">
+        <f t="shared" si="3"/>
+        <v>62625.899999999994</v>
+      </c>
+      <c r="J9" s="335">
+        <f t="shared" si="4"/>
+        <v>15656.474999999999</v>
+      </c>
+      <c r="K9" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="L9" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" ht="15">
       <c r="C10" s="327">
         <v>7</v>
       </c>
@@ -22059,12 +20823,42 @@
         <f t="shared" si="0"/>
         <v>2435.4516666666668</v>
       </c>
-      <c r="G10" s="337">
+      <c r="G10" s="386">
         <f t="shared" si="1"/>
-        <v>340.96323333333339</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" ht="15.75" thickBot="1">
+        <v>340963.23333333334</v>
+      </c>
+      <c r="H10" s="389">
+        <f t="shared" si="2"/>
+        <v>48709.03333333334</v>
+      </c>
+      <c r="I10" s="389">
+        <f t="shared" si="3"/>
+        <v>73063.55</v>
+      </c>
+      <c r="J10" s="335">
+        <f t="shared" si="4"/>
+        <v>18265.887500000001</v>
+      </c>
+      <c r="K10" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="L10" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="P10" s="329" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q10" s="329"/>
+      <c r="R10" s="329" t="s">
+        <v>382</v>
+      </c>
+      <c r="S10" s="329" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" ht="15">
       <c r="C11" s="327">
         <v>8</v>
       </c>
@@ -22078,12 +20872,47 @@
         <f t="shared" si="0"/>
         <v>2783.373333333333</v>
       </c>
-      <c r="G11" s="337">
+      <c r="G11" s="386">
         <f t="shared" si="1"/>
-        <v>389.67226666666664</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" ht="15.75" thickBot="1">
+        <v>389672.2666666666</v>
+      </c>
+      <c r="H11" s="389">
+        <f t="shared" si="2"/>
+        <v>55667.46666666666</v>
+      </c>
+      <c r="I11" s="389">
+        <f t="shared" si="3"/>
+        <v>83501.199999999983</v>
+      </c>
+      <c r="J11" s="335">
+        <f t="shared" si="4"/>
+        <v>20875.299999999996</v>
+      </c>
+      <c r="K11" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="L11" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="P11" s="329">
+        <v>3.75</v>
+      </c>
+      <c r="Q11" s="392">
+        <f>P11*693.5</f>
+        <v>2600.625</v>
+      </c>
+      <c r="R11" s="391">
+        <f>Q11/H4</f>
+        <v>0.37373714389733326</v>
+      </c>
+      <c r="S11" s="391">
+        <f>Q11/I4</f>
+        <v>0.24915809593155552</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" ht="15">
       <c r="C12" s="327">
         <v>9</v>
       </c>
@@ -22097,12 +20926,47 @@
         <f t="shared" si="0"/>
         <v>3131.2950000000001</v>
       </c>
-      <c r="G12" s="337">
+      <c r="G12" s="386">
         <f t="shared" si="1"/>
-        <v>438.38130000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" ht="15.75" thickBot="1">
+        <v>438381.3</v>
+      </c>
+      <c r="H12" s="389">
+        <f t="shared" si="2"/>
+        <v>62625.9</v>
+      </c>
+      <c r="I12" s="389">
+        <f t="shared" si="3"/>
+        <v>93938.85</v>
+      </c>
+      <c r="J12" s="335">
+        <f t="shared" si="4"/>
+        <v>23484.712500000001</v>
+      </c>
+      <c r="K12" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L12" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="P12" s="393">
+        <v>7.5</v>
+      </c>
+      <c r="Q12" s="394">
+        <f t="shared" ref="Q12:Q16" si="7">P12*693.5</f>
+        <v>5201.25</v>
+      </c>
+      <c r="R12" s="395">
+        <f>Q12/H4</f>
+        <v>0.74747428779466651</v>
+      </c>
+      <c r="S12" s="395">
+        <f>Q12/I4</f>
+        <v>0.49831619186311105</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" ht="15">
       <c r="C13" s="327">
         <v>10</v>
       </c>
@@ -22116,12 +20980,47 @@
         <f t="shared" si="0"/>
         <v>3479.2166666666662</v>
       </c>
-      <c r="G13" s="337">
+      <c r="G13" s="386">
         <f t="shared" si="1"/>
-        <v>487.09033333333332</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" ht="15.75" thickBot="1">
+        <v>487090.33333333326</v>
+      </c>
+      <c r="H13" s="389">
+        <f t="shared" si="2"/>
+        <v>69584.333333333328</v>
+      </c>
+      <c r="I13" s="389">
+        <f t="shared" si="3"/>
+        <v>104376.49999999999</v>
+      </c>
+      <c r="J13" s="335">
+        <f t="shared" si="4"/>
+        <v>26094.124999999996</v>
+      </c>
+      <c r="K13" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L13" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="P13" s="329">
+        <v>11.25</v>
+      </c>
+      <c r="Q13" s="392">
+        <f t="shared" si="7"/>
+        <v>7801.875</v>
+      </c>
+      <c r="R13" s="391">
+        <f>Q13/H4</f>
+        <v>1.1212114316919999</v>
+      </c>
+      <c r="S13" s="391">
+        <f>Q13/I4</f>
+        <v>0.74747428779466663</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" ht="15">
       <c r="C14" s="327">
         <v>11</v>
       </c>
@@ -22135,12 +21034,47 @@
         <f t="shared" si="0"/>
         <v>3827.1383333333333</v>
       </c>
-      <c r="G14" s="337">
+      <c r="G14" s="386">
         <f t="shared" si="1"/>
-        <v>535.79936666666674</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" ht="15.75" thickBot="1">
+        <v>535799.3666666667</v>
+      </c>
+      <c r="H14" s="389">
+        <f t="shared" si="2"/>
+        <v>76542.766666666663</v>
+      </c>
+      <c r="I14" s="389">
+        <f t="shared" si="3"/>
+        <v>114814.15</v>
+      </c>
+      <c r="J14" s="335">
+        <f t="shared" si="4"/>
+        <v>28703.537499999999</v>
+      </c>
+      <c r="K14" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L14" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="P14" s="329">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="392">
+        <f t="shared" si="7"/>
+        <v>10402.5</v>
+      </c>
+      <c r="R14" s="391">
+        <f>Q14/H4</f>
+        <v>1.494948575589333</v>
+      </c>
+      <c r="S14" s="391">
+        <f>Q14/I4</f>
+        <v>0.99663238372622209</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" ht="15">
       <c r="C15" s="327">
         <v>12</v>
       </c>
@@ -22154,12 +21088,47 @@
         <f t="shared" si="0"/>
         <v>4175.0599999999995</v>
       </c>
-      <c r="G15" s="337">
+      <c r="G15" s="386">
         <f t="shared" si="1"/>
-        <v>584.50839999999994</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" ht="15.75" thickBot="1">
+        <v>584508.39999999991</v>
+      </c>
+      <c r="H15" s="389">
+        <f t="shared" si="2"/>
+        <v>83501.199999999983</v>
+      </c>
+      <c r="I15" s="389">
+        <f t="shared" si="3"/>
+        <v>125251.79999999999</v>
+      </c>
+      <c r="J15" s="335">
+        <f t="shared" si="4"/>
+        <v>31312.949999999997</v>
+      </c>
+      <c r="K15" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="L15" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="P15" s="329">
+        <v>18.75</v>
+      </c>
+      <c r="Q15" s="392">
+        <f t="shared" si="7"/>
+        <v>13003.125</v>
+      </c>
+      <c r="R15" s="391">
+        <f>Q15/H4</f>
+        <v>1.8686857194866664</v>
+      </c>
+      <c r="S15" s="391">
+        <f>Q15/I4</f>
+        <v>1.2457904796577777</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" ht="15">
       <c r="C16" s="327">
         <v>13</v>
       </c>
@@ -22173,12 +21142,47 @@
         <f t="shared" si="0"/>
         <v>4522.9816666666666</v>
       </c>
-      <c r="G16" s="337">
+      <c r="G16" s="386">
         <f t="shared" si="1"/>
-        <v>633.21743333333336</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="15.75" thickBot="1">
+        <v>633217.43333333335</v>
+      </c>
+      <c r="H16" s="389">
+        <f t="shared" si="2"/>
+        <v>90459.633333333331</v>
+      </c>
+      <c r="I16" s="389">
+        <f t="shared" si="3"/>
+        <v>135689.45000000001</v>
+      </c>
+      <c r="J16" s="335">
+        <f t="shared" si="4"/>
+        <v>33922.362500000003</v>
+      </c>
+      <c r="K16" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="L16" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="P16" s="329">
+        <v>22.5</v>
+      </c>
+      <c r="Q16" s="392">
+        <f t="shared" si="7"/>
+        <v>15603.75</v>
+      </c>
+      <c r="R16" s="391">
+        <f>Q16/H4</f>
+        <v>2.2424228633839998</v>
+      </c>
+      <c r="S16" s="391">
+        <f>Q16/I4</f>
+        <v>1.4949485755893333</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="15">
       <c r="C17" s="327">
         <v>14</v>
       </c>
@@ -22192,12 +21196,32 @@
         <f t="shared" si="0"/>
         <v>4870.9033333333336</v>
       </c>
-      <c r="G17" s="337">
+      <c r="G17" s="386">
         <f t="shared" si="1"/>
-        <v>681.92646666666678</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" ht="15.75" thickBot="1">
+        <v>681926.46666666667</v>
+      </c>
+      <c r="H17" s="389">
+        <f t="shared" si="2"/>
+        <v>97418.06666666668</v>
+      </c>
+      <c r="I17" s="389">
+        <f t="shared" si="3"/>
+        <v>146127.1</v>
+      </c>
+      <c r="J17" s="335">
+        <f t="shared" si="4"/>
+        <v>36531.775000000001</v>
+      </c>
+      <c r="K17" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="L17" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" ht="15">
       <c r="C18" s="327">
         <v>15</v>
       </c>
@@ -22211,12 +21235,32 @@
         <f t="shared" si="0"/>
         <v>5218.8249999999998</v>
       </c>
-      <c r="G18" s="337">
+      <c r="G18" s="386">
         <f t="shared" si="1"/>
-        <v>730.63550000000009</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="15.75" thickBot="1">
+        <v>730635.5</v>
+      </c>
+      <c r="H18" s="389">
+        <f t="shared" si="2"/>
+        <v>104376.5</v>
+      </c>
+      <c r="I18" s="389">
+        <f t="shared" si="3"/>
+        <v>156564.75</v>
+      </c>
+      <c r="J18" s="335">
+        <f t="shared" si="4"/>
+        <v>39141.1875</v>
+      </c>
+      <c r="K18" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L18" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" ht="15">
       <c r="C19" s="327">
         <v>16</v>
       </c>
@@ -22230,12 +21274,32 @@
         <f t="shared" si="0"/>
         <v>5566.7466666666669</v>
       </c>
-      <c r="G19" s="337">
+      <c r="G19" s="386">
         <f t="shared" si="1"/>
-        <v>779.3445333333334</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" ht="15.75" thickBot="1">
+        <v>779344.53333333333</v>
+      </c>
+      <c r="H19" s="389">
+        <f t="shared" si="2"/>
+        <v>111334.93333333333</v>
+      </c>
+      <c r="I19" s="389">
+        <f t="shared" si="3"/>
+        <v>167002.4</v>
+      </c>
+      <c r="J19" s="335">
+        <f t="shared" si="4"/>
+        <v>41750.6</v>
+      </c>
+      <c r="K19" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L19" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" ht="15">
       <c r="C20" s="327">
         <v>17</v>
       </c>
@@ -22249,12 +21313,32 @@
         <f t="shared" si="0"/>
         <v>5914.6683333333331</v>
       </c>
-      <c r="G20" s="337">
+      <c r="G20" s="386">
         <f t="shared" si="1"/>
-        <v>828.05356666666671</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" ht="15.75" thickBot="1">
+        <v>828053.56666666665</v>
+      </c>
+      <c r="H20" s="389">
+        <f t="shared" si="2"/>
+        <v>118293.36666666667</v>
+      </c>
+      <c r="I20" s="389">
+        <f t="shared" si="3"/>
+        <v>177440.05</v>
+      </c>
+      <c r="J20" s="335">
+        <f t="shared" si="4"/>
+        <v>44360.012499999997</v>
+      </c>
+      <c r="K20" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="L20" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" ht="15">
       <c r="C21" s="327">
         <v>18</v>
       </c>
@@ -22268,12 +21352,32 @@
         <f t="shared" si="0"/>
         <v>6262.59</v>
       </c>
-      <c r="G21" s="337">
+      <c r="G21" s="386">
         <f t="shared" si="1"/>
-        <v>876.76260000000013</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" ht="15.75" thickBot="1">
+        <v>876762.6</v>
+      </c>
+      <c r="H21" s="389">
+        <f t="shared" si="2"/>
+        <v>125251.8</v>
+      </c>
+      <c r="I21" s="389">
+        <f t="shared" si="3"/>
+        <v>187877.7</v>
+      </c>
+      <c r="J21" s="335">
+        <f t="shared" si="4"/>
+        <v>46969.425000000003</v>
+      </c>
+      <c r="K21" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L21" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" ht="15">
       <c r="C22" s="327">
         <v>19</v>
       </c>
@@ -22287,12 +21391,32 @@
         <f t="shared" si="0"/>
         <v>6610.5116666666663</v>
       </c>
-      <c r="G22" s="337">
+      <c r="G22" s="386">
         <f t="shared" si="1"/>
-        <v>925.47163333333333</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" ht="15.75" thickBot="1">
+        <v>925471.6333333333</v>
+      </c>
+      <c r="H22" s="389">
+        <f t="shared" si="2"/>
+        <v>132210.23333333334</v>
+      </c>
+      <c r="I22" s="389">
+        <f t="shared" si="3"/>
+        <v>198315.34999999998</v>
+      </c>
+      <c r="J22" s="335">
+        <f t="shared" si="4"/>
+        <v>49578.837499999994</v>
+      </c>
+      <c r="K22" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="L22" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" ht="15">
       <c r="C23" s="327">
         <v>20</v>
       </c>
@@ -22306,12 +21430,32 @@
         <f t="shared" si="0"/>
         <v>6958.4333333333334</v>
       </c>
-      <c r="G23" s="337">
+      <c r="G23" s="386">
         <f t="shared" si="1"/>
-        <v>974.18066666666675</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" ht="15.75" thickBot="1">
+        <v>974180.66666666663</v>
+      </c>
+      <c r="H23" s="389">
+        <f t="shared" si="2"/>
+        <v>139168.66666666666</v>
+      </c>
+      <c r="I23" s="389">
+        <f t="shared" si="3"/>
+        <v>208753</v>
+      </c>
+      <c r="J23" s="335">
+        <f t="shared" si="4"/>
+        <v>52188.25</v>
+      </c>
+      <c r="K23" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L23" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" ht="15">
       <c r="C24" s="327">
         <v>21</v>
       </c>
@@ -22325,12 +21469,32 @@
         <f t="shared" si="0"/>
         <v>7306.3549999999996</v>
       </c>
-      <c r="G24" s="337">
+      <c r="G24" s="386">
         <f t="shared" si="1"/>
-        <v>1022.8897000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" ht="15.75" thickBot="1">
+        <v>1022889.7</v>
+      </c>
+      <c r="H24" s="389">
+        <f t="shared" si="2"/>
+        <v>146127.09999999998</v>
+      </c>
+      <c r="I24" s="389">
+        <f t="shared" si="3"/>
+        <v>219190.65</v>
+      </c>
+      <c r="J24" s="335">
+        <f t="shared" si="4"/>
+        <v>54797.662499999999</v>
+      </c>
+      <c r="K24" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="L24" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" ht="15">
       <c r="C25" s="327">
         <v>22</v>
       </c>
@@ -22344,12 +21508,32 @@
         <f t="shared" si="0"/>
         <v>7654.2766666666666</v>
       </c>
-      <c r="G25" s="337">
+      <c r="G25" s="386">
         <f t="shared" si="1"/>
-        <v>1071.5987333333335</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" ht="15.75" thickBot="1">
+        <v>1071598.7333333334</v>
+      </c>
+      <c r="H25" s="389">
+        <f t="shared" si="2"/>
+        <v>153085.53333333333</v>
+      </c>
+      <c r="I25" s="389">
+        <f t="shared" si="3"/>
+        <v>229628.3</v>
+      </c>
+      <c r="J25" s="335">
+        <f t="shared" si="4"/>
+        <v>57407.074999999997</v>
+      </c>
+      <c r="K25" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L25" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" ht="15">
       <c r="C26" s="327">
         <v>23</v>
       </c>
@@ -22363,12 +21547,32 @@
         <f t="shared" si="0"/>
         <v>8002.1983333333328</v>
       </c>
-      <c r="G26" s="337">
+      <c r="G26" s="386">
         <f t="shared" si="1"/>
-        <v>1120.3077666666668</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" ht="15.75" thickBot="1">
+        <v>1120307.7666666666</v>
+      </c>
+      <c r="H26" s="389">
+        <f t="shared" si="2"/>
+        <v>160043.96666666665</v>
+      </c>
+      <c r="I26" s="389">
+        <f t="shared" si="3"/>
+        <v>240065.94999999998</v>
+      </c>
+      <c r="J26" s="335">
+        <f t="shared" si="4"/>
+        <v>60016.487499999996</v>
+      </c>
+      <c r="K26" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L26" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" ht="15">
       <c r="C27" s="327">
         <v>24</v>
       </c>
@@ -22382,12 +21586,32 @@
         <f t="shared" si="0"/>
         <v>8350.119999999999</v>
       </c>
-      <c r="G27" s="337">
+      <c r="G27" s="386">
         <f t="shared" si="1"/>
-        <v>1169.0167999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" ht="15.75" thickBot="1">
+        <v>1169016.7999999998</v>
+      </c>
+      <c r="H27" s="389">
+        <f t="shared" si="2"/>
+        <v>167002.39999999997</v>
+      </c>
+      <c r="I27" s="389">
+        <f t="shared" si="3"/>
+        <v>250503.59999999998</v>
+      </c>
+      <c r="J27" s="335">
+        <f t="shared" si="4"/>
+        <v>62625.899999999994</v>
+      </c>
+      <c r="K27" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="L27" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" ht="15">
       <c r="C28" s="327">
         <v>25</v>
       </c>
@@ -22401,12 +21625,32 @@
         <f t="shared" si="0"/>
         <v>8698.0416666666661</v>
       </c>
-      <c r="G28" s="337">
+      <c r="G28" s="386">
         <f t="shared" si="1"/>
-        <v>1217.7258333333334</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" ht="15.75" thickBot="1">
+        <v>1217725.8333333333</v>
+      </c>
+      <c r="H28" s="389">
+        <f t="shared" si="2"/>
+        <v>173960.83333333331</v>
+      </c>
+      <c r="I28" s="389">
+        <f t="shared" si="3"/>
+        <v>260941.24999999997</v>
+      </c>
+      <c r="J28" s="335">
+        <f t="shared" si="4"/>
+        <v>65235.312499999993</v>
+      </c>
+      <c r="K28" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L28" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" ht="15">
       <c r="C29" s="327">
         <v>26</v>
       </c>
@@ -22420,12 +21664,32 @@
         <f t="shared" si="0"/>
         <v>9045.9633333333331</v>
       </c>
-      <c r="G29" s="337">
+      <c r="G29" s="386">
         <f t="shared" si="1"/>
-        <v>1266.4348666666667</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" ht="15.75" thickBot="1">
+        <v>1266434.8666666667</v>
+      </c>
+      <c r="H29" s="389">
+        <f t="shared" si="2"/>
+        <v>180919.26666666666</v>
+      </c>
+      <c r="I29" s="389">
+        <f t="shared" si="3"/>
+        <v>271378.90000000002</v>
+      </c>
+      <c r="J29" s="335">
+        <f t="shared" si="4"/>
+        <v>67844.725000000006</v>
+      </c>
+      <c r="K29" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="L29" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" ht="15">
       <c r="C30" s="327">
         <v>27</v>
       </c>
@@ -22439,12 +21703,32 @@
         <f t="shared" si="0"/>
         <v>9393.8850000000002</v>
       </c>
-      <c r="G30" s="337">
+      <c r="G30" s="386">
         <f t="shared" si="1"/>
-        <v>1315.1439000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" ht="15.75" thickBot="1">
+        <v>1315143.9000000001</v>
+      </c>
+      <c r="H30" s="389">
+        <f t="shared" si="2"/>
+        <v>187877.7</v>
+      </c>
+      <c r="I30" s="389">
+        <f t="shared" si="3"/>
+        <v>281816.55</v>
+      </c>
+      <c r="J30" s="335">
+        <f t="shared" si="4"/>
+        <v>70454.137499999997</v>
+      </c>
+      <c r="K30" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="L30" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" ht="15">
       <c r="C31" s="327">
         <v>28</v>
       </c>
@@ -22458,12 +21742,32 @@
         <f t="shared" si="0"/>
         <v>9741.8066666666673</v>
       </c>
-      <c r="G31" s="337">
+      <c r="G31" s="386">
         <f t="shared" si="1"/>
-        <v>1363.8529333333336</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" ht="15.75" thickBot="1">
+        <v>1363852.9333333333</v>
+      </c>
+      <c r="H31" s="389">
+        <f t="shared" si="2"/>
+        <v>194836.13333333336</v>
+      </c>
+      <c r="I31" s="389">
+        <f t="shared" si="3"/>
+        <v>292254.2</v>
+      </c>
+      <c r="J31" s="335">
+        <f t="shared" si="4"/>
+        <v>73063.55</v>
+      </c>
+      <c r="K31" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="L31" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" ht="15">
       <c r="C32" s="327">
         <v>29</v>
       </c>
@@ -22477,12 +21781,32 @@
         <f t="shared" si="0"/>
         <v>10089.728333333334</v>
       </c>
-      <c r="G32" s="337">
+      <c r="G32" s="386">
         <f t="shared" si="1"/>
-        <v>1412.5619666666669</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" ht="15.75" thickBot="1">
+        <v>1412561.9666666668</v>
+      </c>
+      <c r="H32" s="389">
+        <f t="shared" si="2"/>
+        <v>201794.56666666668</v>
+      </c>
+      <c r="I32" s="389">
+        <f t="shared" si="3"/>
+        <v>302691.85000000003</v>
+      </c>
+      <c r="J32" s="335">
+        <f t="shared" si="4"/>
+        <v>75672.962500000009</v>
+      </c>
+      <c r="K32" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L32" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" ht="15">
       <c r="C33" s="327">
         <v>30</v>
       </c>
@@ -22496,12 +21820,32 @@
         <f t="shared" si="0"/>
         <v>10437.65</v>
       </c>
-      <c r="G33" s="337">
+      <c r="G33" s="386">
         <f t="shared" si="1"/>
-        <v>1461.2710000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" ht="15.75" thickBot="1">
+        <v>1461271</v>
+      </c>
+      <c r="H33" s="389">
+        <f t="shared" si="2"/>
+        <v>208753</v>
+      </c>
+      <c r="I33" s="389">
+        <f t="shared" si="3"/>
+        <v>313129.5</v>
+      </c>
+      <c r="J33" s="335">
+        <f t="shared" si="4"/>
+        <v>78282.375</v>
+      </c>
+      <c r="K33" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L33" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" ht="15">
       <c r="C34" s="327">
         <v>31</v>
       </c>
@@ -22515,12 +21859,32 @@
         <f t="shared" si="0"/>
         <v>10785.571666666667</v>
       </c>
-      <c r="G34" s="337">
+      <c r="G34" s="386">
         <f t="shared" si="1"/>
-        <v>1509.9800333333335</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" ht="15.75" thickBot="1">
+        <v>1509980.0333333334</v>
+      </c>
+      <c r="H34" s="389">
+        <f t="shared" si="2"/>
+        <v>215711.43333333335</v>
+      </c>
+      <c r="I34" s="389">
+        <f t="shared" si="3"/>
+        <v>323567.15000000002</v>
+      </c>
+      <c r="J34" s="335">
+        <f t="shared" si="4"/>
+        <v>80891.787500000006</v>
+      </c>
+      <c r="K34" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L34" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" ht="15">
       <c r="C35" s="327">
         <v>32</v>
       </c>
@@ -22534,12 +21898,32 @@
         <f t="shared" si="0"/>
         <v>11133.493333333334</v>
       </c>
-      <c r="G35" s="337">
+      <c r="G35" s="386">
         <f t="shared" si="1"/>
-        <v>1558.6890666666668</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" ht="15.75" thickBot="1">
+        <v>1558689.0666666667</v>
+      </c>
+      <c r="H35" s="389">
+        <f t="shared" si="2"/>
+        <v>222669.86666666667</v>
+      </c>
+      <c r="I35" s="389">
+        <f t="shared" si="3"/>
+        <v>334004.8</v>
+      </c>
+      <c r="J35" s="335">
+        <f t="shared" si="4"/>
+        <v>83501.2</v>
+      </c>
+      <c r="K35" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L35" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" ht="15">
       <c r="C36" s="327">
         <v>33</v>
       </c>
@@ -22553,12 +21937,32 @@
         <f t="shared" si="0"/>
         <v>11481.415000000001</v>
       </c>
-      <c r="G36" s="337">
+      <c r="G36" s="386">
         <f t="shared" si="1"/>
-        <v>1607.3981000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" ht="15.75" thickBot="1">
+        <v>1607398.1</v>
+      </c>
+      <c r="H36" s="389">
+        <f t="shared" si="2"/>
+        <v>229628.30000000002</v>
+      </c>
+      <c r="I36" s="389">
+        <f t="shared" si="3"/>
+        <v>344442.45</v>
+      </c>
+      <c r="J36" s="335">
+        <f t="shared" si="4"/>
+        <v>86110.612500000003</v>
+      </c>
+      <c r="K36" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L36" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" ht="15">
       <c r="C37" s="327">
         <v>34</v>
       </c>
@@ -22572,12 +21976,32 @@
         <f t="shared" si="0"/>
         <v>11829.336666666666</v>
       </c>
-      <c r="G37" s="337">
+      <c r="G37" s="386">
         <f t="shared" si="1"/>
-        <v>1656.1071333333334</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" ht="15.75" thickBot="1">
+        <v>1656107.1333333333</v>
+      </c>
+      <c r="H37" s="389">
+        <f t="shared" si="2"/>
+        <v>236586.73333333334</v>
+      </c>
+      <c r="I37" s="389">
+        <f t="shared" si="3"/>
+        <v>354880.1</v>
+      </c>
+      <c r="J37" s="335">
+        <f t="shared" si="4"/>
+        <v>88720.024999999994</v>
+      </c>
+      <c r="K37" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="L37" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" ht="15">
       <c r="C38" s="327">
         <v>35</v>
       </c>
@@ -22591,12 +22015,32 @@
         <f t="shared" si="0"/>
         <v>12177.258333333333</v>
       </c>
-      <c r="G38" s="337">
+      <c r="G38" s="386">
         <f t="shared" si="1"/>
-        <v>1704.8161666666667</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" ht="15.75" thickBot="1">
+        <v>1704816.1666666667</v>
+      </c>
+      <c r="H38" s="389">
+        <f t="shared" si="2"/>
+        <v>243545.16666666666</v>
+      </c>
+      <c r="I38" s="389">
+        <f t="shared" si="3"/>
+        <v>365317.75</v>
+      </c>
+      <c r="J38" s="335">
+        <f t="shared" si="4"/>
+        <v>91329.4375</v>
+      </c>
+      <c r="K38" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L38" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" ht="15">
       <c r="C39" s="327">
         <v>36</v>
       </c>
@@ -22610,12 +22054,32 @@
         <f t="shared" si="0"/>
         <v>12525.18</v>
       </c>
-      <c r="G39" s="337">
+      <c r="G39" s="386">
         <f t="shared" si="1"/>
-        <v>1753.5252000000003</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" ht="15.75" thickBot="1">
+        <v>1753525.2</v>
+      </c>
+      <c r="H39" s="389">
+        <f t="shared" si="2"/>
+        <v>250503.6</v>
+      </c>
+      <c r="I39" s="389">
+        <f t="shared" si="3"/>
+        <v>375755.4</v>
+      </c>
+      <c r="J39" s="335">
+        <f t="shared" si="4"/>
+        <v>93938.85</v>
+      </c>
+      <c r="K39" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L39" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" ht="15">
       <c r="C40" s="327">
         <v>37</v>
       </c>
@@ -22629,12 +22093,32 @@
         <f t="shared" si="0"/>
         <v>12873.101666666667</v>
       </c>
-      <c r="G40" s="337">
+      <c r="G40" s="386">
         <f t="shared" si="1"/>
-        <v>1802.2342333333336</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" ht="15.75" thickBot="1">
+        <v>1802234.2333333334</v>
+      </c>
+      <c r="H40" s="389">
+        <f t="shared" si="2"/>
+        <v>257462.03333333335</v>
+      </c>
+      <c r="I40" s="389">
+        <f t="shared" si="3"/>
+        <v>386193.05000000005</v>
+      </c>
+      <c r="J40" s="335">
+        <f t="shared" si="4"/>
+        <v>96548.262500000012</v>
+      </c>
+      <c r="K40" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L40" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" ht="15">
       <c r="C41" s="327">
         <v>38</v>
       </c>
@@ -22648,12 +22132,32 @@
         <f t="shared" si="0"/>
         <v>13221.023333333333</v>
       </c>
-      <c r="G41" s="337">
+      <c r="G41" s="386">
         <f t="shared" si="1"/>
-        <v>1850.9432666666667</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" ht="15.75" thickBot="1">
+        <v>1850943.2666666666</v>
+      </c>
+      <c r="H41" s="389">
+        <f t="shared" si="2"/>
+        <v>264420.46666666667</v>
+      </c>
+      <c r="I41" s="389">
+        <f t="shared" si="3"/>
+        <v>396630.69999999995</v>
+      </c>
+      <c r="J41" s="335">
+        <f t="shared" si="4"/>
+        <v>99157.674999999988</v>
+      </c>
+      <c r="K41" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="L41" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" ht="15">
       <c r="C42" s="327">
         <v>39</v>
       </c>
@@ -22667,12 +22171,32 @@
         <f t="shared" si="0"/>
         <v>13568.945</v>
       </c>
-      <c r="G42" s="337">
+      <c r="G42" s="386">
         <f t="shared" si="1"/>
-        <v>1899.6523000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" ht="15.75" thickBot="1">
+        <v>1899652.3</v>
+      </c>
+      <c r="H42" s="389">
+        <f t="shared" si="2"/>
+        <v>271378.90000000002</v>
+      </c>
+      <c r="I42" s="389">
+        <f t="shared" si="3"/>
+        <v>407068.35</v>
+      </c>
+      <c r="J42" s="335">
+        <f t="shared" si="4"/>
+        <v>101767.08749999999</v>
+      </c>
+      <c r="K42" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="L42" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" ht="15">
       <c r="C43" s="327">
         <v>40</v>
       </c>
@@ -22686,12 +22210,32 @@
         <f t="shared" si="0"/>
         <v>13916.866666666667</v>
       </c>
-      <c r="G43" s="337">
+      <c r="G43" s="386">
         <f t="shared" si="1"/>
-        <v>1948.3613333333335</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" ht="15.75" thickBot="1">
+        <v>1948361.3333333333</v>
+      </c>
+      <c r="H43" s="389">
+        <f t="shared" si="2"/>
+        <v>278337.33333333331</v>
+      </c>
+      <c r="I43" s="389">
+        <f t="shared" si="3"/>
+        <v>417506</v>
+      </c>
+      <c r="J43" s="335">
+        <f t="shared" si="4"/>
+        <v>104376.5</v>
+      </c>
+      <c r="K43" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L43" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" ht="15">
       <c r="C44" s="327">
         <v>41</v>
       </c>
@@ -22705,12 +22249,32 @@
         <f t="shared" si="0"/>
         <v>14264.788333333334</v>
       </c>
-      <c r="G44" s="337">
+      <c r="G44" s="386">
         <f t="shared" si="1"/>
-        <v>1997.070366666667</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" ht="15.75" thickBot="1">
+        <v>1997070.3666666667</v>
+      </c>
+      <c r="H44" s="389">
+        <f t="shared" si="2"/>
+        <v>285295.76666666666</v>
+      </c>
+      <c r="I44" s="389">
+        <f t="shared" si="3"/>
+        <v>427943.65</v>
+      </c>
+      <c r="J44" s="335">
+        <f t="shared" si="4"/>
+        <v>106985.91250000001</v>
+      </c>
+      <c r="K44" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L44" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" ht="15">
       <c r="C45" s="327">
         <v>42</v>
       </c>
@@ -22724,12 +22288,32 @@
         <f t="shared" si="0"/>
         <v>14612.71</v>
       </c>
-      <c r="G45" s="337">
+      <c r="G45" s="386">
         <f t="shared" si="1"/>
-        <v>2045.7794000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" ht="15.75" thickBot="1">
+        <v>2045779.4</v>
+      </c>
+      <c r="H45" s="389">
+        <f t="shared" si="2"/>
+        <v>292254.19999999995</v>
+      </c>
+      <c r="I45" s="389">
+        <f t="shared" si="3"/>
+        <v>438381.3</v>
+      </c>
+      <c r="J45" s="335">
+        <f t="shared" si="4"/>
+        <v>109595.325</v>
+      </c>
+      <c r="K45" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="L45" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" ht="15">
       <c r="C46" s="327">
         <v>43</v>
       </c>
@@ -22743,12 +22327,32 @@
         <f t="shared" si="0"/>
         <v>14960.631666666666</v>
       </c>
-      <c r="G46" s="337">
+      <c r="G46" s="386">
         <f t="shared" si="1"/>
-        <v>2094.4884333333334</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" ht="15.75" thickBot="1">
+        <v>2094488.4333333333</v>
+      </c>
+      <c r="H46" s="389">
+        <f t="shared" si="2"/>
+        <v>299212.6333333333</v>
+      </c>
+      <c r="I46" s="389">
+        <f t="shared" si="3"/>
+        <v>448818.95</v>
+      </c>
+      <c r="J46" s="335">
+        <f t="shared" si="4"/>
+        <v>112204.7375</v>
+      </c>
+      <c r="K46" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="L46" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" ht="15">
       <c r="C47" s="327">
         <v>44</v>
       </c>
@@ -22762,12 +22366,32 @@
         <f t="shared" si="0"/>
         <v>15308.553333333333</v>
       </c>
-      <c r="G47" s="337">
+      <c r="G47" s="386">
         <f t="shared" si="1"/>
-        <v>2143.197466666667</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" ht="15.75" thickBot="1">
+        <v>2143197.4666666668</v>
+      </c>
+      <c r="H47" s="389">
+        <f t="shared" si="2"/>
+        <v>306171.06666666665</v>
+      </c>
+      <c r="I47" s="389">
+        <f t="shared" si="3"/>
+        <v>459256.6</v>
+      </c>
+      <c r="J47" s="335">
+        <f t="shared" si="4"/>
+        <v>114814.15</v>
+      </c>
+      <c r="K47" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L47" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" ht="15">
       <c r="C48" s="327">
         <v>45</v>
       </c>
@@ -22781,12 +22405,32 @@
         <f t="shared" si="0"/>
         <v>15656.474999999999</v>
       </c>
-      <c r="G48" s="337">
+      <c r="G48" s="386">
         <f t="shared" si="1"/>
-        <v>2191.9065000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" ht="15.75" thickBot="1">
+        <v>2191906.5</v>
+      </c>
+      <c r="H48" s="389">
+        <f t="shared" si="2"/>
+        <v>313129.5</v>
+      </c>
+      <c r="I48" s="389">
+        <f t="shared" si="3"/>
+        <v>469694.24999999994</v>
+      </c>
+      <c r="J48" s="335">
+        <f t="shared" si="4"/>
+        <v>117423.56249999999</v>
+      </c>
+      <c r="K48" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="L48" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" ht="15">
       <c r="C49" s="327">
         <v>46</v>
       </c>
@@ -22800,12 +22444,32 @@
         <f t="shared" si="0"/>
         <v>16004.396666666666</v>
       </c>
-      <c r="G49" s="337">
+      <c r="G49" s="386">
         <f t="shared" si="1"/>
-        <v>2240.6155333333336</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" ht="15.75" thickBot="1">
+        <v>2240615.5333333332</v>
+      </c>
+      <c r="H49" s="389">
+        <f t="shared" si="2"/>
+        <v>320087.93333333329</v>
+      </c>
+      <c r="I49" s="389">
+        <f t="shared" si="3"/>
+        <v>480131.89999999997</v>
+      </c>
+      <c r="J49" s="335">
+        <f t="shared" si="4"/>
+        <v>120032.97499999999</v>
+      </c>
+      <c r="K49" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L49" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" ht="15">
       <c r="C50" s="327">
         <v>47</v>
       </c>
@@ -22819,12 +22483,32 @@
         <f t="shared" si="0"/>
         <v>16352.318333333333</v>
       </c>
-      <c r="G50" s="337">
+      <c r="G50" s="386">
         <f t="shared" si="1"/>
-        <v>2289.3245666666667</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" ht="15.75" thickBot="1">
+        <v>2289324.5666666664</v>
+      </c>
+      <c r="H50" s="389">
+        <f t="shared" si="2"/>
+        <v>327046.36666666664</v>
+      </c>
+      <c r="I50" s="389">
+        <f t="shared" si="3"/>
+        <v>490569.55</v>
+      </c>
+      <c r="J50" s="335">
+        <f t="shared" si="4"/>
+        <v>122642.3875</v>
+      </c>
+      <c r="K50" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L50" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" ht="15">
       <c r="C51" s="327">
         <v>48</v>
       </c>
@@ -22838,12 +22522,32 @@
         <f t="shared" si="0"/>
         <v>16700.239999999998</v>
       </c>
-      <c r="G51" s="337">
+      <c r="G51" s="386">
         <f t="shared" si="1"/>
-        <v>2338.0335999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" ht="15.75" thickBot="1">
+        <v>2338033.5999999996</v>
+      </c>
+      <c r="H51" s="389">
+        <f t="shared" si="2"/>
+        <v>334004.79999999993</v>
+      </c>
+      <c r="I51" s="389">
+        <f t="shared" si="3"/>
+        <v>501007.19999999995</v>
+      </c>
+      <c r="J51" s="335">
+        <f t="shared" si="4"/>
+        <v>125251.79999999999</v>
+      </c>
+      <c r="K51" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="L51" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" ht="15">
       <c r="C52" s="327">
         <v>49</v>
       </c>
@@ -22857,12 +22561,32 @@
         <f t="shared" si="0"/>
         <v>17048.161666666667</v>
       </c>
-      <c r="G52" s="337">
+      <c r="G52" s="386">
         <f t="shared" si="1"/>
-        <v>2386.7426333333337</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" ht="15.75" thickBot="1">
+        <v>2386742.6333333333</v>
+      </c>
+      <c r="H52" s="389">
+        <f t="shared" si="2"/>
+        <v>340963.23333333334</v>
+      </c>
+      <c r="I52" s="389">
+        <f t="shared" si="3"/>
+        <v>511444.85</v>
+      </c>
+      <c r="J52" s="335">
+        <f t="shared" si="4"/>
+        <v>127861.21249999999</v>
+      </c>
+      <c r="K52" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L52" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" ht="15">
       <c r="C53" s="327">
         <v>50</v>
       </c>
@@ -22876,12 +22600,32 @@
         <f t="shared" si="0"/>
         <v>17396.083333333332</v>
       </c>
-      <c r="G53" s="337">
+      <c r="G53" s="386">
         <f t="shared" si="1"/>
-        <v>2435.4516666666668</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" ht="15.75" thickBot="1">
+        <v>2435451.6666666665</v>
+      </c>
+      <c r="H53" s="389">
+        <f t="shared" si="2"/>
+        <v>347921.66666666663</v>
+      </c>
+      <c r="I53" s="389">
+        <f t="shared" si="3"/>
+        <v>521882.49999999994</v>
+      </c>
+      <c r="J53" s="335">
+        <f t="shared" si="4"/>
+        <v>130470.62499999999</v>
+      </c>
+      <c r="K53" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L53" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" ht="15">
       <c r="C54" s="327">
         <v>51</v>
       </c>
@@ -22895,12 +22639,32 @@
         <f t="shared" si="0"/>
         <v>17744.004999999997</v>
       </c>
-      <c r="G54" s="337">
+      <c r="G54" s="386">
         <f t="shared" si="1"/>
-        <v>2484.1606999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7" ht="15.75" thickBot="1">
+        <v>2484160.6999999997</v>
+      </c>
+      <c r="H54" s="389">
+        <f t="shared" si="2"/>
+        <v>354880.1</v>
+      </c>
+      <c r="I54" s="389">
+        <f t="shared" si="3"/>
+        <v>532320.14999999991</v>
+      </c>
+      <c r="J54" s="335">
+        <f t="shared" si="4"/>
+        <v>133080.03749999998</v>
+      </c>
+      <c r="K54" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="L54" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" ht="15">
       <c r="C55" s="327">
         <v>52</v>
       </c>
@@ -22914,12 +22678,32 @@
         <f t="shared" si="0"/>
         <v>18091.926666666666</v>
       </c>
-      <c r="G55" s="337">
+      <c r="G55" s="386">
         <f t="shared" si="1"/>
-        <v>2532.8697333333334</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7" ht="15.75" thickBot="1">
+        <v>2532869.7333333334</v>
+      </c>
+      <c r="H55" s="389">
+        <f t="shared" si="2"/>
+        <v>361838.53333333333</v>
+      </c>
+      <c r="I55" s="389">
+        <f t="shared" si="3"/>
+        <v>542757.80000000005</v>
+      </c>
+      <c r="J55" s="335">
+        <f t="shared" si="4"/>
+        <v>135689.45000000001</v>
+      </c>
+      <c r="K55" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="L55" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" ht="15">
       <c r="C56" s="327">
         <v>53</v>
       </c>
@@ -22933,12 +22717,32 @@
         <f t="shared" si="0"/>
         <v>18439.848333333332</v>
       </c>
-      <c r="G56" s="337">
+      <c r="G56" s="386">
         <f t="shared" si="1"/>
-        <v>2581.5787666666665</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7" ht="15.75" thickBot="1">
+        <v>2581578.7666666666</v>
+      </c>
+      <c r="H56" s="389">
+        <f t="shared" si="2"/>
+        <v>368796.96666666662</v>
+      </c>
+      <c r="I56" s="389">
+        <f t="shared" si="3"/>
+        <v>553195.44999999995</v>
+      </c>
+      <c r="J56" s="335">
+        <f t="shared" si="4"/>
+        <v>138298.86249999999</v>
+      </c>
+      <c r="K56" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L56" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" ht="15">
       <c r="C57" s="327">
         <v>54</v>
       </c>
@@ -22952,12 +22756,32 @@
         <f t="shared" si="0"/>
         <v>18787.77</v>
       </c>
-      <c r="G57" s="337">
+      <c r="G57" s="386">
         <f t="shared" si="1"/>
-        <v>2630.2878000000005</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7" ht="15.75" thickBot="1">
+        <v>2630287.8000000003</v>
+      </c>
+      <c r="H57" s="389">
+        <f t="shared" si="2"/>
+        <v>375755.4</v>
+      </c>
+      <c r="I57" s="389">
+        <f t="shared" si="3"/>
+        <v>563633.1</v>
+      </c>
+      <c r="J57" s="335">
+        <f t="shared" si="4"/>
+        <v>140908.27499999999</v>
+      </c>
+      <c r="K57" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="L57" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" ht="15">
       <c r="C58" s="327">
         <v>55</v>
       </c>
@@ -22971,12 +22795,32 @@
         <f t="shared" si="0"/>
         <v>19135.691666666666</v>
       </c>
-      <c r="G58" s="337">
+      <c r="G58" s="386">
         <f t="shared" si="1"/>
-        <v>2678.9968333333336</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7" ht="15.75" thickBot="1">
+        <v>2678996.833333333</v>
+      </c>
+      <c r="H58" s="389">
+        <f t="shared" si="2"/>
+        <v>382713.83333333331</v>
+      </c>
+      <c r="I58" s="389">
+        <f t="shared" si="3"/>
+        <v>574070.75</v>
+      </c>
+      <c r="J58" s="335">
+        <f t="shared" si="4"/>
+        <v>143517.6875</v>
+      </c>
+      <c r="K58" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L58" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" ht="15">
       <c r="C59" s="327">
         <v>56</v>
       </c>
@@ -22990,12 +22834,32 @@
         <f t="shared" si="0"/>
         <v>19483.613333333335</v>
       </c>
-      <c r="G59" s="337">
+      <c r="G59" s="386">
         <f t="shared" si="1"/>
-        <v>2727.7058666666671</v>
-      </c>
-    </row>
-    <row r="60" spans="3:7" ht="15.75" thickBot="1">
+        <v>2727705.8666666667</v>
+      </c>
+      <c r="H59" s="389">
+        <f t="shared" si="2"/>
+        <v>389672.26666666672</v>
+      </c>
+      <c r="I59" s="389">
+        <f t="shared" si="3"/>
+        <v>584508.4</v>
+      </c>
+      <c r="J59" s="335">
+        <f t="shared" si="4"/>
+        <v>146127.1</v>
+      </c>
+      <c r="K59" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="L59" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" ht="15">
       <c r="C60" s="327">
         <v>57</v>
       </c>
@@ -23009,12 +22873,32 @@
         <f t="shared" si="0"/>
         <v>19831.535000000003</v>
       </c>
-      <c r="G60" s="337">
+      <c r="G60" s="386">
         <f t="shared" si="1"/>
-        <v>2776.4149000000007</v>
-      </c>
-    </row>
-    <row r="61" spans="3:7" ht="15.75" thickBot="1">
+        <v>2776414.9000000004</v>
+      </c>
+      <c r="H60" s="389">
+        <f t="shared" si="2"/>
+        <v>396630.70000000007</v>
+      </c>
+      <c r="I60" s="389">
+        <f t="shared" si="3"/>
+        <v>594946.05000000005</v>
+      </c>
+      <c r="J60" s="335">
+        <f t="shared" si="4"/>
+        <v>148736.51250000001</v>
+      </c>
+      <c r="K60" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="L60" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" ht="15">
       <c r="C61" s="327">
         <v>58</v>
       </c>
@@ -23028,12 +22912,32 @@
         <f t="shared" si="0"/>
         <v>20179.456666666672</v>
       </c>
-      <c r="G61" s="337">
+      <c r="G61" s="386">
         <f t="shared" si="1"/>
-        <v>2825.1239333333342</v>
-      </c>
-    </row>
-    <row r="62" spans="3:7" ht="15.75" thickBot="1">
+        <v>2825123.933333334</v>
+      </c>
+      <c r="H61" s="389">
+        <f t="shared" si="2"/>
+        <v>403589.13333333342</v>
+      </c>
+      <c r="I61" s="389">
+        <f t="shared" si="3"/>
+        <v>605383.70000000019</v>
+      </c>
+      <c r="J61" s="335">
+        <f t="shared" si="4"/>
+        <v>151345.92500000005</v>
+      </c>
+      <c r="K61" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="L61" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" ht="15">
       <c r="C62" s="327">
         <v>59</v>
       </c>
@@ -23047,12 +22951,32 @@
         <f t="shared" si="0"/>
         <v>20527.378333333341</v>
       </c>
-      <c r="G62" s="337">
+      <c r="G62" s="386">
         <f t="shared" si="1"/>
-        <v>2873.8329666666682</v>
-      </c>
-    </row>
-    <row r="63" spans="3:7" ht="15.75" thickBot="1">
+        <v>2873832.9666666677</v>
+      </c>
+      <c r="H62" s="389">
+        <f t="shared" si="2"/>
+        <v>410547.56666666683</v>
+      </c>
+      <c r="I62" s="389">
+        <f t="shared" si="3"/>
+        <v>615821.35000000021</v>
+      </c>
+      <c r="J62" s="335">
+        <f t="shared" si="4"/>
+        <v>153955.33750000005</v>
+      </c>
+      <c r="K62" s="391">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="L62" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" ht="15.75" thickBot="1">
       <c r="C63" s="328">
         <v>60</v>
       </c>
@@ -23066,12 +22990,32 @@
         <f t="shared" si="0"/>
         <v>20875.300000000007</v>
       </c>
-      <c r="G63" s="337">
+      <c r="G63" s="387">
         <f t="shared" si="1"/>
-        <v>2922.5420000000013</v>
-      </c>
-    </row>
-    <row r="64" spans="3:7" ht="15">
+        <v>2922542.0000000009</v>
+      </c>
+      <c r="H63" s="390">
+        <f t="shared" si="2"/>
+        <v>417506.00000000012</v>
+      </c>
+      <c r="I63" s="390">
+        <f t="shared" si="3"/>
+        <v>626259.00000000023</v>
+      </c>
+      <c r="J63" s="335">
+        <f t="shared" si="4"/>
+        <v>156564.75000000006</v>
+      </c>
+      <c r="K63" s="391">
+        <f t="shared" si="5"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="L63" s="346">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" ht="15">
       <c r="C64" s="330"/>
       <c r="D64" s="331"/>
       <c r="E64" s="331"/>
@@ -23361,7 +23305,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -23387,22 +23330,22 @@
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
       <c r="A1" s="242"/>
-      <c r="B1" s="374" t="s">
+      <c r="B1" s="375" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="375"/>
-      <c r="D1" s="375"/>
-      <c r="E1" s="375"/>
-      <c r="F1" s="375"/>
-      <c r="G1" s="375"/>
-      <c r="H1" s="375"/>
-      <c r="I1" s="375"/>
-      <c r="J1" s="375"/>
-      <c r="K1" s="375"/>
-      <c r="L1" s="375"/>
-      <c r="M1" s="375"/>
-      <c r="N1" s="375"/>
-      <c r="O1" s="375"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+      <c r="F1" s="376"/>
+      <c r="G1" s="376"/>
+      <c r="H1" s="376"/>
+      <c r="I1" s="376"/>
+      <c r="J1" s="376"/>
+      <c r="K1" s="376"/>
+      <c r="L1" s="376"/>
+      <c r="M1" s="376"/>
+      <c r="N1" s="376"/>
+      <c r="O1" s="376"/>
       <c r="P1" s="242"/>
       <c r="Q1" s="242"/>
     </row>
@@ -24240,10 +24183,10 @@
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1">
       <c r="A38" s="183"/>
-      <c r="B38" s="376" t="s">
+      <c r="B38" s="377" t="s">
         <v>238</v>
       </c>
-      <c r="C38" s="372"/>
+      <c r="C38" s="373"/>
       <c r="D38" s="311" t="s">
         <v>249</v>
       </c>
@@ -24289,31 +24232,31 @@
     </row>
     <row r="39" spans="1:17" ht="15" customHeight="1">
       <c r="A39" s="183"/>
-      <c r="B39" s="377"/>
-      <c r="C39" s="372"/>
-      <c r="D39" s="378" t="s">
+      <c r="B39" s="378"/>
+      <c r="C39" s="373"/>
+      <c r="D39" s="379" t="s">
         <v>264</v>
       </c>
-      <c r="E39" s="372"/>
-      <c r="F39" s="372"/>
-      <c r="G39" s="372"/>
-      <c r="H39" s="372"/>
-      <c r="I39" s="372"/>
-      <c r="J39" s="372"/>
-      <c r="K39" s="372"/>
-      <c r="L39" s="372"/>
-      <c r="M39" s="372"/>
-      <c r="N39" s="372"/>
-      <c r="O39" s="372"/>
-      <c r="P39" s="372"/>
-      <c r="Q39" s="372"/>
+      <c r="E39" s="373"/>
+      <c r="F39" s="373"/>
+      <c r="G39" s="373"/>
+      <c r="H39" s="373"/>
+      <c r="I39" s="373"/>
+      <c r="J39" s="373"/>
+      <c r="K39" s="373"/>
+      <c r="L39" s="373"/>
+      <c r="M39" s="373"/>
+      <c r="N39" s="373"/>
+      <c r="O39" s="373"/>
+      <c r="P39" s="373"/>
+      <c r="Q39" s="373"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1">
       <c r="A40" s="183"/>
-      <c r="B40" s="371" t="s">
+      <c r="B40" s="372" t="s">
         <v>288</v>
       </c>
-      <c r="C40" s="372"/>
+      <c r="C40" s="373"/>
       <c r="D40" s="312">
         <v>75077</v>
       </c>
@@ -24359,10 +24302,10 @@
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1">
       <c r="A41" s="183"/>
-      <c r="B41" s="371" t="s">
+      <c r="B41" s="372" t="s">
         <v>290</v>
       </c>
-      <c r="C41" s="372"/>
+      <c r="C41" s="373"/>
       <c r="D41" s="312">
         <v>3973</v>
       </c>
@@ -24408,10 +24351,10 @@
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1">
       <c r="A42" s="183"/>
-      <c r="B42" s="371" t="s">
+      <c r="B42" s="372" t="s">
         <v>291</v>
       </c>
-      <c r="C42" s="372"/>
+      <c r="C42" s="373"/>
       <c r="D42" s="313">
         <v>20</v>
       </c>
@@ -24457,10 +24400,10 @@
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1">
       <c r="A43" s="183"/>
-      <c r="B43" s="371" t="s">
+      <c r="B43" s="372" t="s">
         <v>292</v>
       </c>
-      <c r="C43" s="372"/>
+      <c r="C43" s="373"/>
       <c r="D43" s="313">
         <v>108</v>
       </c>
@@ -24506,10 +24449,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1">
       <c r="A44" s="183"/>
-      <c r="B44" s="371" t="s">
+      <c r="B44" s="372" t="s">
         <v>293</v>
       </c>
-      <c r="C44" s="372"/>
+      <c r="C44" s="373"/>
       <c r="D44" s="312">
         <v>51365</v>
       </c>
@@ -24751,10 +24694,10 @@
     </row>
     <row r="49" spans="1:17" ht="15" customHeight="1">
       <c r="A49" s="183"/>
-      <c r="B49" s="373" t="s">
+      <c r="B49" s="374" t="s">
         <v>307</v>
       </c>
-      <c r="C49" s="372"/>
+      <c r="C49" s="373"/>
       <c r="D49" s="316">
         <v>130543</v>
       </c>
@@ -25031,15 +24974,15 @@
     </row>
     <row r="9" spans="1:20" ht="17.25" customHeight="1">
       <c r="A9" s="321"/>
-      <c r="B9" s="381" t="s">
+      <c r="B9" s="382" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="382"/>
-      <c r="D9" s="382"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="382"/>
-      <c r="G9" s="382"/>
-      <c r="H9" s="383"/>
+      <c r="C9" s="383"/>
+      <c r="D9" s="383"/>
+      <c r="E9" s="383"/>
+      <c r="F9" s="383"/>
+      <c r="G9" s="383"/>
+      <c r="H9" s="384"/>
       <c r="I9" s="69">
         <f>I10*I11*I12*I13</f>
         <v>1174665803143.3186</v>
@@ -25060,15 +25003,15 @@
     </row>
     <row r="10" spans="1:20" ht="17.25" customHeight="1">
       <c r="A10" s="321"/>
-      <c r="B10" s="381" t="s">
+      <c r="B10" s="382" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="382"/>
-      <c r="D10" s="382"/>
-      <c r="E10" s="382"/>
-      <c r="F10" s="382"/>
-      <c r="G10" s="382"/>
-      <c r="H10" s="383"/>
+      <c r="C10" s="383"/>
+      <c r="D10" s="383"/>
+      <c r="E10" s="383"/>
+      <c r="F10" s="383"/>
+      <c r="G10" s="383"/>
+      <c r="H10" s="384"/>
       <c r="I10" s="79">
         <f>Summary!C57</f>
         <v>6309000000</v>
@@ -25089,15 +25032,15 @@
     </row>
     <row r="11" spans="1:20" ht="17.25" customHeight="1">
       <c r="A11" s="321"/>
-      <c r="B11" s="381" t="s">
+      <c r="B11" s="382" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="382"/>
-      <c r="D11" s="382"/>
-      <c r="E11" s="382"/>
-      <c r="F11" s="382"/>
-      <c r="G11" s="382"/>
-      <c r="H11" s="383"/>
+      <c r="C11" s="383"/>
+      <c r="D11" s="383"/>
+      <c r="E11" s="383"/>
+      <c r="F11" s="383"/>
+      <c r="G11" s="383"/>
+      <c r="H11" s="384"/>
       <c r="I11" s="81">
         <f>Summary!C60</f>
         <v>0.2</v>
@@ -25116,15 +25059,15 @@
     </row>
     <row r="12" spans="1:20" ht="17.25" customHeight="1">
       <c r="A12" s="321"/>
-      <c r="B12" s="381" t="s">
+      <c r="B12" s="382" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="382"/>
-      <c r="D12" s="382"/>
-      <c r="E12" s="382"/>
-      <c r="F12" s="382"/>
-      <c r="G12" s="382"/>
-      <c r="H12" s="383"/>
+      <c r="C12" s="383"/>
+      <c r="D12" s="383"/>
+      <c r="E12" s="383"/>
+      <c r="F12" s="383"/>
+      <c r="G12" s="383"/>
+      <c r="H12" s="384"/>
       <c r="I12" s="93">
         <f>Summary!C64</f>
         <v>1242.0138888888887</v>
@@ -25145,15 +25088,15 @@
     </row>
     <row r="13" spans="1:20" ht="17.25" customHeight="1">
       <c r="A13" s="321"/>
-      <c r="B13" s="381" t="s">
+      <c r="B13" s="382" t="s">
         <v>211</v>
       </c>
-      <c r="C13" s="382"/>
-      <c r="D13" s="382"/>
-      <c r="E13" s="382"/>
-      <c r="F13" s="382"/>
-      <c r="G13" s="382"/>
-      <c r="H13" s="383"/>
+      <c r="C13" s="383"/>
+      <c r="D13" s="383"/>
+      <c r="E13" s="383"/>
+      <c r="F13" s="383"/>
+      <c r="G13" s="383"/>
+      <c r="H13" s="384"/>
       <c r="I13" s="94">
         <f>(1-I18)*(1-I19)*(1-I20)*(1-I21)*(1-I22)*(1-I23)*(1-I24)*(1-I25)</f>
         <v>0.7495443766899198</v>
@@ -25199,10 +25142,10 @@
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="379" t="s">
+      <c r="G15" s="380" t="s">
         <v>214</v>
       </c>
-      <c r="H15" s="350"/>
+      <c r="H15" s="351"/>
       <c r="I15" s="102">
         <f>1000*I9/(24*365*1000000000)</f>
         <v>134.094269765219</v>
@@ -25210,12 +25153,12 @@
       <c r="J15" s="104" t="s">
         <v>228</v>
       </c>
-      <c r="K15" s="380"/>
-      <c r="L15" s="357"/>
-      <c r="M15" s="357"/>
-      <c r="N15" s="357"/>
-      <c r="O15" s="357"/>
-      <c r="P15" s="357"/>
+      <c r="K15" s="381"/>
+      <c r="L15" s="358"/>
+      <c r="M15" s="358"/>
+      <c r="N15" s="358"/>
+      <c r="O15" s="358"/>
+      <c r="P15" s="358"/>
       <c r="Q15" s="319"/>
       <c r="R15" s="320"/>
       <c r="S15" s="320"/>
@@ -25232,12 +25175,12 @@
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
-      <c r="K16" s="380"/>
-      <c r="L16" s="357"/>
-      <c r="M16" s="357"/>
-      <c r="N16" s="357"/>
-      <c r="O16" s="357"/>
-      <c r="P16" s="357"/>
+      <c r="K16" s="381"/>
+      <c r="L16" s="358"/>
+      <c r="M16" s="358"/>
+      <c r="N16" s="358"/>
+      <c r="O16" s="358"/>
+      <c r="P16" s="358"/>
       <c r="Q16" s="319"/>
       <c r="R16" s="320"/>
       <c r="S16" s="320"/>
@@ -25681,21 +25624,21 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1" thickBot="1">
       <c r="A1" s="211"/>
-      <c r="B1" s="384" t="s">
+      <c r="B1" s="385" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="350"/>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
-      <c r="G1" s="350"/>
-      <c r="H1" s="350"/>
-      <c r="I1" s="350"/>
-      <c r="J1" s="350"/>
-      <c r="K1" s="350"/>
-      <c r="L1" s="350"/>
-      <c r="M1" s="350"/>
-      <c r="N1" s="350"/>
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="351"/>
+      <c r="F1" s="351"/>
+      <c r="G1" s="351"/>
+      <c r="H1" s="351"/>
+      <c r="I1" s="351"/>
+      <c r="J1" s="351"/>
+      <c r="K1" s="351"/>
+      <c r="L1" s="351"/>
+      <c r="M1" s="351"/>
+      <c r="N1" s="351"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="211"/>
@@ -26850,7 +26793,7 @@
         <v>363</v>
       </c>
       <c r="D54" s="214" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -26888,13 +26831,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="354" t="s">
+      <c r="B1" s="355" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="355"/>
-      <c r="D1" s="355"/>
-      <c r="E1" s="355"/>
-      <c r="F1" s="355"/>
+      <c r="C1" s="356"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="183"/>
@@ -27093,13 +27036,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="354" t="s">
+      <c r="B1" s="355" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="355"/>
-      <c r="D1" s="355"/>
-      <c r="E1" s="355"/>
-      <c r="F1" s="355"/>
+      <c r="C1" s="356"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="183"/>
@@ -27316,14 +27259,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="354" t="s">
+      <c r="B1" s="355" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="355"/>
-      <c r="D1" s="355"/>
-      <c r="E1" s="355"/>
-      <c r="F1" s="355"/>
-      <c r="G1" s="355"/>
+      <c r="C1" s="356"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
+      <c r="G1" s="356"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="183"/>
@@ -28059,13 +28002,13 @@
       <c r="A22" s="183"/>
       <c r="B22" s="183"/>
       <c r="C22" s="183"/>
-      <c r="D22" s="356" t="s">
+      <c r="D22" s="357" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="357"/>
-      <c r="F22" s="357"/>
-      <c r="G22" s="357"/>
-      <c r="H22" s="357"/>
+      <c r="E22" s="358"/>
+      <c r="F22" s="358"/>
+      <c r="G22" s="358"/>
+      <c r="H22" s="358"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="183"/>
@@ -30983,7 +30926,7 @@
   <dimension ref="A1:X122"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -31012,21 +30955,21 @@
   <sheetData>
     <row r="1" spans="1:24" ht="28.5" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="358" t="s">
+      <c r="B1" s="359" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="355"/>
-      <c r="D1" s="355"/>
-      <c r="E1" s="355"/>
-      <c r="F1" s="355"/>
-      <c r="G1" s="355"/>
-      <c r="H1" s="355"/>
-      <c r="I1" s="355"/>
-      <c r="J1" s="355"/>
-      <c r="K1" s="355"/>
-      <c r="L1" s="355"/>
-      <c r="M1" s="355"/>
-      <c r="N1" s="355"/>
+      <c r="C1" s="356"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
+      <c r="G1" s="356"/>
+      <c r="H1" s="356"/>
+      <c r="I1" s="356"/>
+      <c r="J1" s="356"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="356"/>
+      <c r="N1" s="356"/>
       <c r="O1" s="221"/>
       <c r="P1" s="221"/>
       <c r="Q1" s="221"/>
@@ -31144,10 +31087,10 @@
     </row>
     <row r="6" spans="1:24" ht="16.5" customHeight="1" thickBot="1">
       <c r="A6" s="183"/>
-      <c r="B6" s="359" t="s">
+      <c r="B6" s="360" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="360"/>
+      <c r="C6" s="361"/>
       <c r="D6" s="223"/>
       <c r="E6" s="223"/>
       <c r="F6" s="223"/>
@@ -31203,7 +31146,7 @@
     <row r="8" spans="1:24" ht="30" customHeight="1">
       <c r="A8" s="183"/>
       <c r="B8" s="344" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C8" s="76">
         <f>Summary!C31</f>
@@ -31539,10 +31482,10 @@
       <c r="S19" s="183"/>
       <c r="T19" s="183"/>
       <c r="U19" s="183"/>
-      <c r="V19" s="361" t="s">
+      <c r="V19" s="362" t="s">
         <v>263</v>
       </c>
-      <c r="W19" s="357"/>
+      <c r="W19" s="358"/>
     </row>
     <row r="20" spans="1:23" ht="75.75" customHeight="1" thickBot="1">
       <c r="A20" s="218"/>
@@ -40930,23 +40873,23 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="365" t="s">
+      <c r="B1" s="366" t="s">
         <v>356</v>
       </c>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
-      <c r="G1" s="354"/>
-      <c r="H1" s="354"/>
-      <c r="I1" s="354"/>
-      <c r="J1" s="354"/>
-      <c r="K1" s="354"/>
-      <c r="L1" s="354"/>
-      <c r="M1" s="354"/>
-      <c r="N1" s="354"/>
-      <c r="O1" s="354"/>
-      <c r="P1" s="354"/>
+      <c r="C1" s="355"/>
+      <c r="D1" s="355"/>
+      <c r="E1" s="355"/>
+      <c r="F1" s="355"/>
+      <c r="G1" s="355"/>
+      <c r="H1" s="355"/>
+      <c r="I1" s="355"/>
+      <c r="J1" s="355"/>
+      <c r="K1" s="355"/>
+      <c r="L1" s="355"/>
+      <c r="M1" s="355"/>
+      <c r="N1" s="355"/>
+      <c r="O1" s="355"/>
+      <c r="P1" s="355"/>
     </row>
     <row r="2" spans="1:17" s="184" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="183"/>
@@ -40968,25 +40911,25 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="183"/>
-      <c r="B3" s="362" t="s">
+      <c r="B3" s="363" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="363"/>
-      <c r="D3" s="363"/>
-      <c r="E3" s="363"/>
-      <c r="F3" s="363"/>
-      <c r="G3" s="363"/>
-      <c r="H3" s="364"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="364"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="364"/>
+      <c r="H3" s="365"/>
       <c r="I3" s="183"/>
-      <c r="J3" s="362" t="s">
+      <c r="J3" s="363" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="363"/>
-      <c r="L3" s="363"/>
-      <c r="M3" s="363"/>
-      <c r="N3" s="363"/>
-      <c r="O3" s="363"/>
-      <c r="P3" s="364"/>
+      <c r="K3" s="364"/>
+      <c r="L3" s="364"/>
+      <c r="M3" s="364"/>
+      <c r="N3" s="364"/>
+      <c r="O3" s="364"/>
+      <c r="P3" s="365"/>
       <c r="Q3" s="182"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
@@ -43837,20 +43780,20 @@
   <sheetData>
     <row r="1" spans="1:20" ht="24" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="358" t="s">
+      <c r="B1" s="359" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="355"/>
-      <c r="D1" s="355"/>
-      <c r="E1" s="355"/>
-      <c r="F1" s="355"/>
-      <c r="G1" s="355"/>
-      <c r="H1" s="355"/>
-      <c r="I1" s="355"/>
-      <c r="J1" s="355"/>
-      <c r="K1" s="355"/>
-      <c r="L1" s="355"/>
-      <c r="M1" s="355"/>
+      <c r="C1" s="356"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
+      <c r="G1" s="356"/>
+      <c r="H1" s="356"/>
+      <c r="I1" s="356"/>
+      <c r="J1" s="356"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="356"/>
       <c r="N1" s="180"/>
       <c r="O1" s="180"/>
       <c r="P1" s="180"/>
@@ -43948,10 +43891,10 @@
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1">
       <c r="A6" s="242"/>
-      <c r="B6" s="366" t="s">
+      <c r="B6" s="367" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="367"/>
+      <c r="C6" s="368"/>
       <c r="D6" s="220"/>
       <c r="E6" s="220"/>
       <c r="F6" s="220"/>
@@ -44054,7 +43997,7 @@
     <row r="10" spans="1:20" ht="30" customHeight="1">
       <c r="A10" s="183"/>
       <c r="B10" s="339" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C10" s="264">
         <f>C9*C8*1000000</f>
@@ -44339,7 +44282,7 @@
         <v>302</v>
       </c>
       <c r="K20" s="338" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L20" s="43" t="s">
         <v>303</v>
